--- a/cards/card_status_history/card_status_history.xlsx
+++ b/cards/card_status_history/card_status_history.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,809 +440,1123 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>_airbyte_ab_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_emitted_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>csh_code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>csh_date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>csh_car_code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>csh_use_code</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>csh_reas_code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>csh_new_stat_code</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>csh_old_stat_code</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>csh_new_stat_effe_date</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>csh_old_stat_effe_date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>_airbyte_additional_properties</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>source_file_path</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>updated_at</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ff26e634-11c7-4f6c-970a-93c6da0320dc</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C2" t="n">
         <v>25821841</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2023-04-20T10:39:55</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>627313</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>19017</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>13</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2021-01-13T00:00:00.000000</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>2021-01-13T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>43550c79-d6ce-422a-bbd0-c33a67f25034</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C3" t="n">
         <v>25875361</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2023-04-20T10:46:06</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>663940</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>19017</v>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>13</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>2022-01-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>2022-01-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bfe89d8a-f8b9-4b42-a9a3-9ba807bd0f8b</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C4" t="n">
         <v>28228201</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2023-05-14T10:23:11</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>2189238</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>19005</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>8</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c6406c59-3b9e-4239-8808-bbeee29f61c4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C5" t="n">
         <v>32229401</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2023-06-08T17:37:35</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>2189238</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>19017</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
         <v>11</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="J5" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cd25a979-0d48-4d68-acee-d83e61465024</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C6" t="n">
         <v>32334081</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2023-06-11T16:10:02</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>2189238</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>401</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>11</v>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>2023-05-14T09:41:26</t>
         </is>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3028df44-5122-4654-98a7-821c842837ea</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C7" t="n">
         <v>36518161</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2023-07-17T11:44:09</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>663940</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>19017</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>13</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>2022-01-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>2022-01-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>29d0ab22-2d8f-4f0d-a810-fb9cc3b80b48</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C8" t="n">
         <v>40276021</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>2023-08-20T10:50:17</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>2305604</v>
       </c>
-      <c r="D8" t="n">
+      <c r="F8" t="n">
         <v>19005</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>8</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="J8" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a8276047-577f-49e6-9f1a-81449332a92b</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C9" t="n">
         <v>46993901</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>2023-10-22T15:04:09</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="E9" t="n">
         <v>1011613</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>401</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>2021-04-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>2021-04-01T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J9" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>38b99e3a-b949-4627-b20a-1a70bc78ccbc</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C10" t="n">
         <v>47039981</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2023-10-27T13:14:26</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>2305604</v>
       </c>
-      <c r="D10" t="n">
+      <c r="F10" t="n">
         <v>19012</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
         <v>11</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="J10" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9fdbf87a-05c2-4788-9e29-ef5c2c427917</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C11" t="n">
         <v>47055341</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>2023-10-28T15:47:29</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>2305604</v>
       </c>
-      <c r="D11" t="n">
+      <c r="F11" t="n">
         <v>401</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>11</v>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>2023-08-20T10:31:10</t>
         </is>
       </c>
-      <c r="J11" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>730cc122-bc2e-44df-8e47-7f90da968788</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C12" t="n">
         <v>48071981</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>2023-11-03T14:42:17</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="E12" t="n">
         <v>2370062</v>
       </c>
-      <c r="D12" t="n">
+      <c r="F12" t="n">
         <v>19012</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>8</v>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="J12" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>5866fc02-13cc-4e9e-a7e5-19c23fa005e7</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C13" t="n">
         <v>53412061</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2024-01-22T17:15:51</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="n">
         <v>687657</v>
       </c>
-      <c r="D13" t="n">
+      <c r="F13" t="n">
         <v>19012</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
         <v>13</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>2024-01-22T17:15:51</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>2021-11-18T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J13" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fb65fc12-09e4-4134-87f1-5220099e49ef</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C14" t="n">
         <v>53558121</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>2024-01-22T17:16:03</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>641547</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F14" t="n">
         <v>19012</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
         <v>13</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>2024-01-22T17:16:03</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>2020-11-19T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J14" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>f99ecc35-f4b3-41cf-84ff-963f655fc8ed</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C15" t="n">
         <v>53732641</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>2024-01-23T13:01:44</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>663940</v>
       </c>
-      <c r="D15" t="n">
+      <c r="F15" t="n">
         <v>19219</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>2024-01-23T13:01:44</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>2022-01-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J15" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f6c5a530-f559-4718-a697-35139479a9ff</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C16" t="n">
         <v>54837281</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>2024-02-04T14:47:24</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>641547</v>
       </c>
-      <c r="D16" t="n">
+      <c r="F16" t="n">
         <v>19024</v>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>13</v>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>2024-02-04T14:47:24</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>2024-01-22T17:16:03</t>
         </is>
       </c>
-      <c r="J16" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>5feb6dc8-aedf-4be4-8096-d7f7a32d0519</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C17" t="n">
         <v>56010621</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>2024-02-23T15:21:48</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>687657</v>
       </c>
-      <c r="D17" t="n">
+      <c r="F17" t="n">
         <v>19024</v>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>13</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>2024-02-23T15:21:48</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>2024-01-22T17:15:51</t>
         </is>
       </c>
-      <c r="J17" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>8f1c8515-c98c-4cb0-a20a-53908bf0b9a0</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C18" t="n">
         <v>59965521</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>2024-04-04T10:58:28</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>627313</v>
       </c>
-      <c r="D18" t="n">
+      <c r="F18" t="n">
         <v>19024</v>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>13</v>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>2024-04-04T10:58:28</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>2021-01-13T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J18" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>61ad57e5-940b-4778-bb15-ca369395b003</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C19" t="n">
         <v>60019841</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>2024-04-05T10:12:02</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="E19" t="n">
         <v>627313</v>
       </c>
-      <c r="D19" t="n">
+      <c r="F19" t="n">
         <v>19024</v>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
         <v>13</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>2024-04-05T10:12:02</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>2024-04-04T10:58:28</t>
         </is>
       </c>
-      <c r="J19" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9ac340ec-21cc-4a84-a90f-f11753204ce4</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C20" t="n">
         <v>60583281</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>2024-04-18T14:56:42</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>1844260</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>19024</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>13</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>2024-04-18T14:56:42</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>2021-11-23T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J20" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>f665cdaf-56e4-4b8b-93c8-eef2e9debaed</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C21" t="n">
         <v>63917561</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>2024-06-14T09:30:14</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>2370062</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>19012</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>14</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>2024-06-14T09:30:14</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>2023-11-03T14:40:23</t>
         </is>
       </c>
-      <c r="J21" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>46dceb30-3d72-4dc0-86b7-568497e9a9c5</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45510.3079196875</v>
+      </c>
+      <c r="C22" t="n">
         <v>65194261</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>2024-07-03T09:36:29</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>1666078</v>
       </c>
-      <c r="D22" t="n">
+      <c r="F22" t="n">
         <v>19012</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>11</v>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>2024-07-03T09:36:29</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>2020-08-02T00:00:00.000000</t>
         </is>
       </c>
-      <c r="J22" s="2" t="n">
-        <v>45511.29451273148</v>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>s3a://ai360nica/data/bronze/oracle/eftswitch/MXP/CARD_STATUS_HISTORY/2024_08_06_1722929004063_0.parquet</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>45511.29451273381</v>
       </c>
     </row>
   </sheetData>
